--- a/results/table1/groupby_race_white.xlsx
+++ b/results/table1/groupby_race_white.xlsx
@@ -505,10 +505,10 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>2236</v>
+        <v>4349</v>
       </c>
       <c r="D4" t="n">
-        <v>10477</v>
+        <v>19565</v>
       </c>
     </row>
     <row r="5">
@@ -524,12 +524,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>895 (40.0)</t>
+          <t>1889 (43.4)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3938 (37.6)</t>
+          <t>7738 (39.6)</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>562 (25.1)</t>
+          <t>1099 (25.3)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2523 (24.1)</t>
+          <t>4854 (24.8)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>471 (21.1)</t>
+          <t>840 (19.3)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2374 (22.7)</t>
+          <t>4282 (21.9)</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>308 (13.8)</t>
+          <t>521 (12.0)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1642 (15.7)</t>
+          <t>2691 (13.8)</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1068 (47.8)</t>
+          <t>2098 (48.2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4418 (42.2)</t>
+          <t>8014 (41.0)</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>793 (35.5)</t>
+          <t>1626 (37.4)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5218 (49.8)</t>
+          <t>9814 (50.2)</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>332 (14.8)</t>
+          <t>664 (15.3)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>577 (5.5)</t>
+          <t>1117 (5.7)</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1111 (49.7)</t>
+          <t>2059 (47.3)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4682 (44.7)</t>
+          <t>8634 (44.1)</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>739 (33.1)</t>
+          <t>1412 (32.5)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>478 (4.6)</t>
+          <t>914 (4.7)</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>192 (8.6)</t>
+          <t>387 (8.9)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1517 (14.5)</t>
+          <t>3108 (15.9)</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>742 (33.2)</t>
+          <t>1285 (29.5)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4433 (42.3)</t>
+          <t>8033 (41.1)</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>419 (18.7)</t>
+          <t>693 (15.9)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1902 (18.2)</t>
+          <t>3038 (15.5)</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1331 (59.5)</t>
+          <t>2012 (46.3)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6392 (61.0)</t>
+          <t>9386 (48.0)</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>159 (7.1)</t>
+          <t>226 (5.2)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>723 (6.9)</t>
+          <t>1006 (5.1)</t>
         </is>
       </c>
     </row>
@@ -812,12 +812,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1108 (49.6)</t>
+          <t>1852 (42.6)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5941 (56.7)</t>
+          <t>9681 (49.5)</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1489 (66.6)</t>
+          <t>2856 (65.7)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6718 (64.1)</t>
+          <t>12416 (63.5)</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>774 (34.6)</t>
+          <t>1481 (34.1)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3677 (35.1)</t>
+          <t>6518 (33.3)</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>530 (23.7)</t>
+          <t>1120 (25.8)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2586 (24.7)</t>
+          <t>4796 (24.5)</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30 (1.3)</t>
+          <t>54 (1.2)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>165 (1.6)</t>
+          <t>259 (1.3)</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>634 (28.4)</t>
+          <t>1224 (28.1)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3964 (37.8)</t>
+          <t>7393 (37.8)</t>
         </is>
       </c>
     </row>
@@ -944,12 +944,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>6 (0.1)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 (0.0)</t>
+          <t>8 (0.0)</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21 (0.9)</t>
+          <t>46 (1.1)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70 (0.7)</t>
+          <t>130 (0.7)</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>178 (8.0)</t>
+          <t>351 (8.1)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>559 (5.3)</t>
+          <t>1092 (5.6)</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2034 (91.0)</t>
+          <t>3946 (90.7)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9846 (94.0)</t>
+          <t>18335 (93.7)</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>48 (2.1)</t>
+          <t>130 (3.0)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>266 (2.5)</t>
+          <t>525 (2.7)</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>842 (37.7)</t>
+          <t>1656 (38.1)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2782 (26.6)</t>
+          <t>5240 (26.8)</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1346 (60.2)</t>
+          <t>2563 (58.9)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7429 (70.9)</t>
+          <t>13800 (70.5)</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>97 (4.3)</t>
+          <t>206 (4.7)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>450 (4.3)</t>
+          <t>820 (4.2)</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>129 (5.8)</t>
+          <t>230 (5.3)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>499 (4.8)</t>
+          <t>852 (4.4)</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15 (0.7)</t>
+          <t>33 (0.8)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>86 (0.8)</t>
+          <t>153 (0.8)</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>11 (0.3)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22 (0.2)</t>
+          <t>72 (0.4)</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>4 (0.1)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21 (0.2)</t>
+          <t>47 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>64 [52,76]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>68 [57,79]</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.50 [3.50,9.94]</t>
+          <t>3.96 [1.88,8.08]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.79 [3.50,10.17]</t>
+          <t>4.04 [1.92,8.49]</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.25 [2.88,8.13]</t>
+          <t>2.71 [1.50,5.33]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.13 [2.79,7.48]</t>
+          <t>2.63 [1.42,5.17]</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5 [3,8]</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.51]</t>
+          <t>0.31 [0.16,0.52]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.27 [0.13,0.46]</t>
+          <t>0.28 [0.14,0.47]</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1292,12 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2.0 [1.0,8.0]</t>
+          <t>2.0 [1.0,6.0]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>3.0 [1.0,7.0]</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>41.0 [9.5,97.0]</t>
+          <t>31.0 [4.0,90.8]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>43.0 [11.0,97.0]</t>
+          <t>32.0 [7.0,87.0]</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1328,12 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>3.0 [1.0,9.0]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,7.0]</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.45]</t>
+          <t>0.21 [0.07,0.45]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>0.24 [0.08,0.48]</t>
         </is>
       </c>
     </row>

--- a/results/table1/groupby_race_white.xlsx
+++ b/results/table1/groupby_race_white.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
